--- a/plantillas/consulta/Validacion_Resultados.xlsx
+++ b/plantillas/consulta/Validacion_Resultados.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C1634-B56D-4282-870F-26C5EA7B75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C912FC-E527-441D-91E8-5CF0E68A822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Total de Opiniones</t>
   </si>
@@ -31,9 +29,6 @@
   </si>
   <si>
     <t>Nombre de la Unidad Territorial</t>
-  </si>
-  <si>
-    <t>FORMATO 4</t>
   </si>
   <si>
     <t>¿Se presentó alguna persona Observadora para presenciar la validación?</t>
@@ -61,21 +56,22 @@
 (Sí/No)</t>
   </si>
   <si>
-    <t>Total de Ciudadanas (os) que votaron 
-(Los marcados con la palabra "voto" en la Lista nominal, los que votaron con resolución del Tribunal Electoral y vía SEI)</t>
-  </si>
-  <si>
-    <t>Total de Ciudadanas (os) que emitieron su opinión (EN CASO DE ACTAS LEVANTADAS EN DIRECCIÓN DISTRITAL)</t>
-  </si>
-  <si>
     <t>Clave de la UT</t>
+  </si>
+  <si>
+    <t>Total de personas que emitieron su opinión
+(Las marcadas con la palabra "voto" en la Lista nominal y las que opinaron con resoluciones del Tribunal Electoral)</t>
+  </si>
+  <si>
+    <t>Total de personas que votaron
+(EN CASO DE ACTAS LEVANTADAS EN DIRECCIÓN DISTRITAL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,11 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -135,6 +126,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,6 +173,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -181,46 +196,46 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,157 +558,176 @@
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="N4" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="D7" s="2"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:14" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.31496062992125984"/>
@@ -702,28 +736,4 @@
     <oddFooter>&amp;L&amp;D &amp;T&amp;R&amp;P DE &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>